--- a/xlsx_template/product_test_result.xlsx
+++ b/xlsx_template/product_test_result.xlsx
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -100,51 +100,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -159,6 +137,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -167,9 +199,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,67 +216,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,13 +258,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,19 +378,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,25 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,109 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,8 +495,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,17 +510,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,30 +529,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -589,153 +559,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelRow="7"/>

--- a/xlsx_template/product_test_result.xlsx
+++ b/xlsx_template/product_test_result.xlsx
@@ -16,6 +16,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
+    <t>胶料名称</t>
+  </si>
+  <si>
+    <t>工厂日期</t>
+  </si>
+  <si>
+    <t>生产班次/班组</t>
+  </si>
+  <si>
+    <t>机台</t>
+  </si>
+  <si>
+    <t>车次</t>
+  </si>
+  <si>
     <t>门尼</t>
   </si>
   <si>
@@ -28,19 +43,7 @@
     <t>流变</t>
   </si>
   <si>
-    <t>胶料名称</t>
-  </si>
-  <si>
-    <t>工厂日期</t>
-  </si>
-  <si>
-    <t>生产班次/班组</t>
-  </si>
-  <si>
-    <t>机台</t>
-  </si>
-  <si>
-    <t>车次</t>
+    <t>是否合格</t>
   </si>
   <si>
     <t>ML(1+4)</t>
@@ -65,9 +68,6 @@
   </si>
   <si>
     <t>TC90</t>
-  </si>
-  <si>
-    <t>是否合格</t>
   </si>
 </sst>
 </file>
@@ -76,11 +76,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,6 +89,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -107,56 +114,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,8 +166,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -177,19 +198,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -198,46 +228,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,192 +259,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -461,37 +468,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -501,41 +477,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,20 +503,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,176 +556,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,139 +1050,164 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="15.6160714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.9821428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.2767857142857" style="1" customWidth="1"/>
+    <col min="4" max="30" width="9.14285714285714" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:30">
-      <c r="A1" s="3"/>
-      <c r="E1" s="5"/>
+    <row r="1" ht="35" customHeight="1" spans="1:30">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="39" customHeight="1" spans="1:31">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:30">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="U2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="4" t="s">
+      <c r="W2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="AC2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE2" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="AD2" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="10">
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:AC1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AD1:AD2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/xlsx_template/product_test_result.xlsx
+++ b/xlsx_template/product_test_result.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>胶料名称</t>
   </si>
@@ -22,7 +22,10 @@
     <t>工厂日期</t>
   </si>
   <si>
-    <t>生产班次/班组</t>
+    <t>生产班次</t>
+  </si>
+  <si>
+    <t>班组</t>
   </si>
   <si>
     <t>机台</t>
@@ -31,43 +34,52 @@
     <t>车次</t>
   </si>
   <si>
-    <t>门尼</t>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>TC50</t>
+  </si>
+  <si>
+    <t>TC90</t>
   </si>
   <si>
     <t>比重值</t>
   </si>
   <si>
+    <t>ML(1+4)</t>
+  </si>
+  <si>
     <t>硬度值</t>
   </si>
   <si>
-    <t>流变</t>
-  </si>
-  <si>
     <t>是否合格</t>
   </si>
   <si>
-    <t>ML(1+4)</t>
-  </si>
-  <si>
-    <t>标准</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>MH</t>
-  </si>
-  <si>
-    <t>ML</t>
-  </si>
-  <si>
-    <t>TC10</t>
-  </si>
-  <si>
-    <t>TC50</t>
-  </si>
-  <si>
-    <t>TC90</t>
+    <t>dN.m</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>中央值</t>
+  </si>
+  <si>
+    <t>规格幅（±）</t>
+  </si>
+  <si>
+    <t>上规格幅</t>
+  </si>
+  <si>
+    <t>下规格幅</t>
   </si>
 </sst>
 </file>
@@ -75,12 +87,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,12 +105,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -114,7 +120,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,7 +134,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,6 +156,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -158,6 +240,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -165,90 +255,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -259,12 +265,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -277,97 +427,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,72 +445,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -467,6 +473,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
     <border>
       <left/>
       <right/>
@@ -482,6 +505,62 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,62 +582,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -570,165 +593,186 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1050,165 +1094,261 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="15.6160714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.9821428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.2767857142857" style="1" customWidth="1"/>
-    <col min="4" max="30" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="13.9017857142857" style="2" customWidth="1"/>
+    <col min="2" max="6" width="8.69642857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.30357142857143" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.69642857142857" style="2" customWidth="1"/>
+    <col min="9" max="11" width="5.40178571428571" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.59821428571429" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.69642857142857" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6.59821428571429" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.30357142857143" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35" customHeight="1" spans="1:30">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="4" t="s">
+      <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA2" s="4" t="s">
+      <c r="I2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD2" s="2"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:15">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="9">
+        <f>(G5+G6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <f>(H5+H6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <f>(I5+I6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <f>(J5+J6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <f>(K5+K6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <f>(L5+L6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <f>(M5+M6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <f>(N5+N6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:15">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="9">
+        <f>G5-G3</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <f>H5-H3</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <f>I5-I3</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <f>J5-J3</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <f>K5-K3</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <f>L5-L3</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <f>M5-M3</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <f>N5-N3</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:15">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:15">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:AC1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="AD1:AD2"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/xlsx_template/product_test_result.xlsx
+++ b/xlsx_template/product_test_result.xlsx
@@ -738,7 +738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,34 +746,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1094,18 +1088,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="13.9017857142857" style="2" customWidth="1"/>
-    <col min="2" max="6" width="8.69642857142857" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.6875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="2" customWidth="1"/>
+    <col min="3" max="6" width="8.69642857142857" style="2" customWidth="1"/>
     <col min="7" max="7" width="5.30357142857143" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.69642857142857" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.34821428571429" style="2" customWidth="1"/>
     <col min="9" max="11" width="5.40178571428571" style="2" customWidth="1"/>
     <col min="12" max="12" width="6.59821428571429" style="2" customWidth="1"/>
     <col min="13" max="13" width="7.69642857142857" style="2" customWidth="1"/>
@@ -1157,7 +1152,7 @@
       <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1168,27 +1163,27 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="11"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="5" t="s">
@@ -1199,35 +1194,35 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <f>(G5+G6)/2</f>
         <v>0</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <f>(H5+H6)/2</f>
         <v>0</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <f>(I5+I6)/2</f>
         <v>0</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <f>(J5+J6)/2</f>
         <v>0</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <f>(K5+K6)/2</f>
         <v>0</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <f>(L5+L6)/2</f>
         <v>0</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <f>(M5+M6)/2</f>
         <v>0</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <f>(N5+N6)/2</f>
         <v>0</v>
       </c>
@@ -1242,35 +1237,35 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f>G5-G3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <f>H5-H3</f>
         <v>0</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <f>I5-I3</f>
         <v>0</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <f>J5-J3</f>
         <v>0</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <f>K5-K3</f>
         <v>0</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <f>L5-L3</f>
         <v>0</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <f>M5-M3</f>
         <v>0</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <f>N5-N3</f>
         <v>0</v>
       </c>
@@ -1314,40 +1309,6 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/xlsx_template/product_test_result.xlsx
+++ b/xlsx_template/product_test_result.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -87,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -133,10 +133,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,85 +157,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,17 +190,69 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -271,79 +271,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,97 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,6 +509,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -524,17 +533,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -546,6 +544,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,156 +588,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
@@ -1195,35 +1195,35 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="8">
-        <f>(G5+G6)/2</f>
+        <f t="shared" ref="G3:N3" si="0">(G5+G6)/2</f>
         <v>0</v>
       </c>
       <c r="H3" s="8">
-        <f>(H5+H6)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="8">
-        <f>(I5+I6)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3" s="8">
-        <f>(J5+J6)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K3" s="8">
-        <f>(K5+K6)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3" s="8">
-        <f>(L5+L6)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M3" s="8">
-        <f>(M5+M6)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N3" s="8">
-        <f>(N5+N6)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O3" s="3"/>
@@ -1238,35 +1238,35 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="8">
-        <f>G5-G3</f>
+        <f t="shared" ref="G4:N4" si="1">G5-G3</f>
         <v>0</v>
       </c>
       <c r="H4" s="8">
-        <f>H5-H3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <f>I5-I3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4" s="8">
-        <f>J5-J3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" s="8">
-        <f>K5-K3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L4" s="8">
-        <f>L5-L3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M4" s="8">
-        <f>M5-M3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N4" s="8">
-        <f>N5-N3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O4" s="3"/>

--- a/xlsx_template/product_test_result.xlsx
+++ b/xlsx_template/product_test_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>胶料名称</t>
   </si>
@@ -28,12 +28,21 @@
     <t>班组</t>
   </si>
   <si>
-    <t>机台</t>
+    <t>生产机台</t>
+  </si>
+  <si>
+    <t>门尼机台</t>
+  </si>
+  <si>
+    <t>硫变机台</t>
   </si>
   <si>
     <t>车次</t>
   </si>
   <si>
+    <t>检测结果</t>
+  </si>
+  <si>
     <t>MH</t>
   </si>
   <si>
@@ -58,7 +67,10 @@
     <t>硬度值</t>
   </si>
   <si>
-    <t>是否合格</t>
+    <t>检测状态</t>
+  </si>
+  <si>
+    <t>处理意见</t>
   </si>
   <si>
     <t>dN.m</t>
@@ -87,12 +99,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +117,13 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -113,21 +132,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,40 +184,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,75 +261,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,73 +284,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,114 +470,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -491,11 +516,26 @@
       </diagonal>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,8 +552,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,6 +569,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,187 +628,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,11 +803,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1088,28 +1140,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="20.6875" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.875" style="2" customWidth="1"/>
-    <col min="3" max="6" width="8.69642857142857" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.30357142857143" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.34821428571429" style="2" customWidth="1"/>
-    <col min="9" max="11" width="5.40178571428571" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.59821428571429" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.69642857142857" style="2" customWidth="1"/>
-    <col min="14" max="14" width="6.59821428571429" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.30357142857143" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.14285714285714" style="1"/>
+    <col min="3" max="8" width="8.69642857142857" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.2678571428571" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.30357142857143" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.34821428571429" style="2" customWidth="1"/>
+    <col min="12" max="14" width="5.40178571428571" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.59821428571429" style="2" customWidth="1"/>
+    <col min="16" max="16" width="7.69642857142857" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.59821428571429" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.8660714285714" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.75" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:19">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1125,189 +1179,221 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:15">
+    <row r="2" s="1" customFormat="1" spans="1:19">
       <c r="A2" s="2"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:15">
+    <row r="3" s="1" customFormat="1" spans="1:19">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="8">
-        <f t="shared" ref="G3:N3" si="0">(G5+G6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="10">
+        <f t="shared" ref="J3:Q3" si="0">(J5+J6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I3" s="8">
+      <c r="L3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J3" s="8">
+      <c r="M3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K3" s="8">
+      <c r="N3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L3" s="8">
+      <c r="O3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M3" s="8">
+      <c r="P3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N3" s="8">
+      <c r="Q3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:15">
+    <row r="4" s="1" customFormat="1" spans="1:19">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="8">
-        <f t="shared" ref="G4:N4" si="1">G5-G3</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10">
+        <f t="shared" ref="J4:Q4" si="1">J5-J3</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="8">
+      <c r="L4" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="8">
+      <c r="M4" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K4" s="8">
+      <c r="N4" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L4" s="8">
+      <c r="O4" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M4" s="8">
+      <c r="P4" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N4" s="8">
+      <c r="Q4" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
+    <row r="5" s="1" customFormat="1" spans="1:19">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:15">
+    <row r="6" s="1" customFormat="1" spans="1:19">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/xlsx_template/product_test_result.xlsx
+++ b/xlsx_template/product_test_result.xlsx
@@ -43,6 +43,15 @@
     <t>检测结果</t>
   </si>
   <si>
+    <t>ML(1+4)</t>
+  </si>
+  <si>
+    <t>比重值</t>
+  </si>
+  <si>
+    <t>硬度值</t>
+  </si>
+  <si>
     <t>MH</t>
   </si>
   <si>
@@ -56,15 +65,6 @@
   </si>
   <si>
     <t>TC90</t>
-  </si>
-  <si>
-    <t>比重值</t>
-  </si>
-  <si>
-    <t>ML(1+4)</t>
-  </si>
-  <si>
-    <t>硬度值</t>
   </si>
   <si>
     <t>检测状态</t>
@@ -99,12 +99,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,6 +131,33 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -138,6 +165,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -147,10 +205,70 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,119 +279,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -290,19 +295,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,25 +433,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,133 +463,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,41 +539,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,6 +560,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -599,6 +580,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,13 +619,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,152 +638,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,10 +817,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1143,7 +1145,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
@@ -1152,9 +1154,11 @@
     <col min="2" max="2" width="14.875" style="2" customWidth="1"/>
     <col min="3" max="8" width="8.69642857142857" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.2678571428571" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.30357142857143" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.34821428571429" style="2" customWidth="1"/>
-    <col min="12" max="14" width="5.40178571428571" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.58928571428571" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.14285714285714" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="5.40178571428571" style="2" customWidth="1"/>
     <col min="15" max="15" width="6.59821428571429" style="2" customWidth="1"/>
     <col min="16" max="16" width="7.69642857142857" style="2" customWidth="1"/>
     <col min="17" max="17" width="6.59821428571429" style="2" customWidth="1"/>
@@ -1194,10 +1198,10 @@
       <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="10" t="s">
@@ -1218,7 +1222,7 @@
       <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1231,7 +1235,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="11"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="10" t="s">
         <v>19</v>
       </c>
@@ -1266,7 +1270,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="10">
         <f t="shared" ref="J3:Q3" si="0">(J5+J6)/2</f>
         <v>0</v>
@@ -1313,7 +1317,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="10">
         <f t="shared" ref="J4:Q4" si="1">J5-J3</f>
         <v>0</v>
@@ -1360,7 +1364,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="12"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -1383,7 +1387,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>

--- a/xlsx_template/product_test_result.xlsx
+++ b/xlsx_template/product_test_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13920"/>
+    <workbookView windowWidth="27900" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>胶料名称</t>
   </si>
@@ -67,6 +67,24 @@
     <t>TC90</t>
   </si>
   <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>钢拔</t>
+  </si>
+  <si>
+    <t>M300</t>
+  </si>
+  <si>
+    <t>伸长率%</t>
+  </si>
+  <si>
+    <t>扯断强度</t>
+  </si>
+  <si>
+    <t>永久变形</t>
+  </si>
+  <si>
     <t>检测状态</t>
   </si>
   <si>
@@ -80,6 +98,18 @@
   </si>
   <si>
     <t>MV</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>MPa</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
   <si>
     <t>中央值</t>
@@ -99,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -137,6 +167,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -144,63 +189,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,23 +241,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -244,39 +304,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -301,181 +331,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,8 +569,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,15 +604,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,11 +634,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,172 +663,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -818,6 +848,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1140,12 +1176,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
@@ -1162,12 +1198,12 @@
     <col min="15" max="15" width="6.59821428571429" style="2" customWidth="1"/>
     <col min="16" max="16" width="7.69642857142857" style="2" customWidth="1"/>
     <col min="17" max="17" width="6.59821428571429" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10.8660714285714" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.75" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.14285714285714" style="1"/>
+    <col min="18" max="25" width="10.8660714285714" style="2" customWidth="1"/>
+    <col min="26" max="26" width="11.75" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:19">
+    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:26">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1219,14 +1255,35 @@
       <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="12" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="13">
+        <v>1</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:19">
+    <row r="2" s="1" customFormat="1" spans="1:26">
       <c r="A2" s="2"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1237,31 +1294,56 @@
       <c r="H2" s="4"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="P2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:19">
+    <row r="3" s="1" customFormat="1" spans="1:26">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1303,12 +1385,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="R3" s="10">
+        <f t="shared" ref="R3:X3" si="1">(R5+R6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:19">
+    <row r="4" s="1" customFormat="1" spans="1:26">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1319,43 +1429,71 @@
       <c r="H4" s="4"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10">
-        <f t="shared" ref="J4:Q4" si="1">J5-J3</f>
+        <f t="shared" ref="J4:Q4" si="2">J5-J3</f>
         <v>0</v>
       </c>
       <c r="K4" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L4" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M4" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N4" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O4" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P4" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q4" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="10">
+        <f t="shared" ref="R4:X4" si="3">R5-R3</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:19">
+    <row r="5" s="1" customFormat="1" spans="1:26">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -1375,10 +1513,17 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:19">
+    <row r="6" s="1" customFormat="1" spans="1:26">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1398,6 +1543,13 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
